--- a/lab2_Thomas_Tan.xlsx
+++ b/lab2_Thomas_Tan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zelpha\Documents\2014Spring\cse220\lab2\lab2_pt1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zelpha\Documents\2014Spring\cse220\lab2\lab2_pt1\lab2_pt2\lab2_part2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
   <si>
     <t>Functional Test
 Name:</t>
@@ -45,9 +45,6 @@
     <t>Listener program</t>
   </si>
   <si>
-    <t>listner.c source file</t>
-  </si>
-  <si>
     <t>return type</t>
   </si>
   <si>
@@ -69,13 +66,7 @@
     <t>Test Number</t>
   </si>
   <si>
-    <t>call init_listner function</t>
-  </si>
-  <si>
     <t>call get source line</t>
-  </si>
-  <si>
-    <t>./ listner helloworld.c &gt; listner.output</t>
   </si>
   <si>
     <t>Input Perameter
@@ -98,18 +89,9 @@
     <t xml:space="preserve">./ listner </t>
   </si>
   <si>
-    <t>you need to put source file to read</t>
-  </si>
-  <si>
-    <t>./listner badFileName &gt; listner.output</t>
-  </si>
-  <si>
     <t>init_lister(argv[1]);</t>
   </si>
   <si>
-    <t>init_lister(10);</t>
-  </si>
-  <si>
     <t>invalid function call</t>
   </si>
   <si>
@@ -185,23 +167,105 @@
     <t>invalid input</t>
   </si>
   <si>
-    <t>no error on regarding input count</t>
-  </si>
-  <si>
-    <t>check for existing input file</t>
-  </si>
-  <si>
-    <t>program runs if file exists</t>
-  </si>
-  <si>
-    <t>file cannot be found, program exits</t>
+    <t>what are we testing for</t>
+  </si>
+  <si>
+    <t>to see if an input perameter was entered to run the program</t>
+  </si>
+  <si>
+    <t>to see if the  input perameter entered fore the program existed</t>
+  </si>
+  <si>
+    <t>a source file</t>
+  </si>
+  <si>
+    <t>a source file that exist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./ listner anyFileNameOrString </t>
+  </si>
+  <si>
+    <t xml:space="preserve">./ listner AnExitingFileName.c </t>
+  </si>
+  <si>
+    <t xml:space="preserve">01 : Passed: input file was entered as perameter  </t>
+  </si>
+  <si>
+    <t>01: Failed: missing input file, should be ./listner inputfile.c you need to put source file to read</t>
+  </si>
+  <si>
+    <t>02 : Passed: input file existed</t>
+  </si>
+  <si>
+    <t>02: Failed: input file: %s  cannot be found.  exited from testing</t>
+  </si>
+  <si>
+    <t>./listner thisFileDoesNotExist.c</t>
+  </si>
+  <si>
+    <t>testig to see is the function returns a void</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">call init_listner function using the example case below.printf("\t:%s:\n", </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(init_lister(argv)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, "if you see noting between the colon and the if, then test 3 pass the function returned void else test 3 failed"));
+</t>
+    </r>
+  </si>
+  <si>
+    <t>init_lister(argv);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">program executed, with test output  like the below
+03: Pass or Fail:
+input file name is : listner2.c  time is: Fri Feb 21 11:41:29 2014
+        :if you see noting between the colon and the if, then test 3 pass the function returned void else test 3 failed:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as case for an invalid input will resut in the program not compiling. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">program will not compile if there were to be an invalid input. In that case there would be some data between the colon and the if below.
+03: Pass or Fail:
+input file name is : listner2.c  time is: Fri Feb 21 11:41:29 2014
+        :if you see noting between the colon and the if, then test 3 pass the function returned void else test 3 failed:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this would be the same for test case 3 above. </t>
+  </si>
+  <si>
+    <t>These test cases will work if the program compiles and produces the exectable lister.
+To run these functions you can enter the below commands at the command line.
+./lister listner.c &gt; listner.output</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,8 +288,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,8 +314,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -474,104 +556,180 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -853,528 +1011,562 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N20"/>
+  <dimension ref="A2:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.77734375" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="24.77734375" customWidth="1"/>
-    <col min="5" max="5" width="33.6640625" customWidth="1"/>
-    <col min="6" max="8" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="18.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="37.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" style="2" customWidth="1"/>
+    <col min="7" max="9" width="29.6640625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12">
+        <v>2</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" s="23" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="18">
+        <v>3</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+    </row>
+    <row r="7" spans="1:15" s="23" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="17"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25">
+        <v>4</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F7" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
+        <v>5</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="12">
+        <v>6</v>
+      </c>
+      <c r="D9" s="43"/>
+      <c r="E9" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="35">
+        <v>7</v>
+      </c>
+      <c r="D10" s="43"/>
+      <c r="E10" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="15">
+        <v>4567</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="6">
+        <v>9</v>
+      </c>
+      <c r="D11" s="43"/>
+      <c r="E11" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="12">
+        <v>10</v>
+      </c>
+      <c r="D12" s="43"/>
+      <c r="E12" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="35">
+        <v>11</v>
+      </c>
+      <c r="D13" s="43"/>
+      <c r="E13" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="15">
+        <v>123</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="6">
+        <v>13</v>
+      </c>
+      <c r="D14" s="43"/>
+      <c r="E14" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="12">
+        <v>14</v>
+      </c>
+      <c r="D15" s="43"/>
+      <c r="E15" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="35">
+        <v>15</v>
+      </c>
+      <c r="D16" s="43"/>
+      <c r="E16" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="15">
+        <v>123</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="6">
         <v>17</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D17" s="43"/>
+      <c r="E17" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="12">
         <v>18</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="D18" s="43"/>
+      <c r="E18" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37">
         <v>19</v>
       </c>
-      <c r="G3" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="16">
-        <v>1</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="19">
-        <v>2</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="20">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="17">
-        <v>4</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="16">
-        <v>5</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="19">
-        <v>6</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="D19" s="44"/>
+      <c r="E19" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="26" t="s">
+      <c r="F19" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="20">
-        <v>7</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="26">
-        <v>4567</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="16">
-        <v>9</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="19">
-        <v>10</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="20">
-        <v>11</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="23">
+      <c r="H19" s="39">
         <v>123</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="16">
-        <v>13</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="19">
-        <v>14</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="20">
-        <v>15</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="23">
-        <v>123</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="16">
-        <v>17</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="19">
-        <v>18</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="23" t="s">
+      <c r="I19" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="21">
-        <v>19</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="24">
-        <v>123</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="D8:D19"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B13"/>
